--- a/lib/APGCMS/APGCMS/lib/lib_urine_20160503.xlsx
+++ b/lib/APGCMS/APGCMS/lib/lib_urine_20160503.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="34260" yWindow="420" windowWidth="24360" windowHeight="18660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="lib_urine_20160329.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="599">
   <si>
     <t>SeqIndex</t>
   </si>
@@ -81,9 +81,6 @@
     <t>HMDB00023</t>
   </si>
   <si>
-    <t>3-hydroxyisobutyric</t>
-  </si>
-  <si>
     <t>40 41 42 43 44 45 46 47 48 49 50 51 52 53 54 55 56 57 58 59 60 61 62 63 64 66 67 68 69 70 71 73 74 75 76 77 78 79 80 80 81 82 83 84 85 86 87 88 89 90 91 92 93 95 98 99 100 101 102 103 104 105 106 107 109 109 110 111 112 113 115 116 117 118 119 120 121 122 125 127 129 131 132 133 134 135 136 137 137 139 143 144 145 147 148 149 150 151 152 153 154 156 157 159 161 162 163 164 165 166 171 173 174 175 176 177 178 189 190 191 192 192 197 203 205 206 207 208 209 210 210 215 215 217 218 219 221 222 223 223 225 229 231 233 234 235 236 237 238 244 248 249 254 262 263 264 266 279 281 282 283 295 298 323 327 345 369 377 507 513 530 569 580</t>
   </si>
   <si>
@@ -1807,6 +1804,18 @@
   </si>
   <si>
     <t xml:space="preserve">2676 20800 9126 57064 17368 102560 8167 26616 950 605 220 953 841 2863 2551 247 244 6465 3118 7539 19376 32608 4385 17528 1393 1329 395 13832 10740 5354 4777 391744 40088 95280 6792 19032 836 1116 696 1165 762 213 2285 738 3180 1386 864 461 304 18600 264 287 2077 11639 2767 7126 1478 4681 289 327 529 202 313 1258 19456 6520 11354 2447 4108 1169 748 2264 304256 34288 44464 5365 2838 463 449 8003 549 1996 286784 43936 22976 2246 1090 528 221 293 168 526 331 1031 940 271 511 505 524 2383 424 377 178 919 2130 1966 571 159 162 583 72408 13686 8749 3072 504 929 3025 489 420 397 6044 1749 606 244 14947 3857 1536 282 280 334 682 849 720 843 402 232 290 928 169 254 328 161 168 303 283 243 260 342 452 378 337 195 252 </t>
+  </si>
+  <si>
+    <t>HMDB00115</t>
+  </si>
+  <si>
+    <t>HMDB00661 --&gt; HMDB00115</t>
+  </si>
+  <si>
+    <t>3-hydroxyisobutyric acid</t>
+  </si>
+  <si>
+    <t>Oxalic (2TMS)</t>
   </si>
 </sst>
 </file>
@@ -1956,7 +1965,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="311">
+  <cellStyleXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2268,8 +2277,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2304,8 +2317,9 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="311">
+  <cellStyles count="315">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2461,6 +2475,8 @@
     <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2616,6 +2632,8 @@
     <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2956,12 +2974,12 @@
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" style="4" customWidth="1"/>
@@ -3015,7 +3033,7 @@
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -3048,7 +3066,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>18</v>
@@ -3056,7 +3074,7 @@
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -3065,10 +3083,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>597</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>597</v>
       </c>
       <c r="F3" s="2">
         <v>9.61</v>
@@ -3086,16 +3104,16 @@
         <v>205</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="O3" s="15"/>
     </row>
@@ -3104,13 +3122,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4">
         <v>9.44</v>
@@ -3128,27 +3146,30 @@
         <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="5" spans="1:15">
+      <c r="A5" s="27" t="s">
+        <v>596</v>
+      </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>175</v>
+      <c r="C5" s="28" t="s">
+        <v>595</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>471</v>
       </c>
       <c r="F5" s="4">
         <v>10</v>
@@ -3163,16 +3184,16 @@
         <v>177</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3180,13 +3201,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4">
         <v>9.65</v>
@@ -3201,16 +3222,16 @@
         <v>205</v>
       </c>
       <c r="K6" t="s">
+        <v>593</v>
+      </c>
+      <c r="L6" t="s">
         <v>594</v>
       </c>
-      <c r="L6" t="s">
-        <v>595</v>
-      </c>
       <c r="M6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="24" customFormat="1">
@@ -3218,13 +3239,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>34</v>
       </c>
       <c r="F7" s="24">
         <v>10.92</v>
@@ -3239,16 +3260,16 @@
         <v>172</v>
       </c>
       <c r="K7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="M7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="24" t="s">
         <v>36</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -3256,13 +3277,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="4">
         <v>11.186</v>
@@ -3277,16 +3298,16 @@
         <v>233</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>467</v>
-      </c>
       <c r="M8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -3294,13 +3315,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="13">
         <v>11.72</v>
@@ -3315,16 +3336,16 @@
         <v>233</v>
       </c>
       <c r="K9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -3332,13 +3353,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="4">
         <v>11.864000000000001</v>
@@ -3353,16 +3374,16 @@
         <v>219</v>
       </c>
       <c r="K10" t="s">
+        <v>536</v>
+      </c>
+      <c r="L10" t="s">
         <v>537</v>
       </c>
-      <c r="L10" t="s">
-        <v>538</v>
-      </c>
       <c r="M10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="24" customFormat="1">
@@ -3370,13 +3391,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>49</v>
-      </c>
       <c r="E11" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="24">
         <v>11.91</v>
@@ -3391,16 +3412,16 @@
         <v>157</v>
       </c>
       <c r="K11" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="24" t="s">
-        <v>51</v>
-      </c>
       <c r="M11" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -3408,13 +3429,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>56</v>
+        <v>598</v>
       </c>
       <c r="F12" s="4">
         <v>11.9</v>
@@ -3429,33 +3450,33 @@
         <v>219</v>
       </c>
       <c r="K12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B13" s="4">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F13" s="2">
         <v>13.51</v>
@@ -3473,16 +3494,16 @@
         <v>186</v>
       </c>
       <c r="K13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="M13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -3490,13 +3511,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="4">
         <v>12.17</v>
@@ -3511,16 +3532,16 @@
         <v>177</v>
       </c>
       <c r="K14" t="s">
+        <v>549</v>
+      </c>
+      <c r="L14" t="s">
         <v>550</v>
       </c>
-      <c r="L14" t="s">
-        <v>551</v>
-      </c>
       <c r="M14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -3528,13 +3549,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="4">
         <v>12.29</v>
@@ -3549,16 +3570,16 @@
         <v>174</v>
       </c>
       <c r="K15" t="s">
+        <v>527</v>
+      </c>
+      <c r="L15" t="s">
         <v>528</v>
       </c>
-      <c r="L15" t="s">
-        <v>529</v>
-      </c>
       <c r="M15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -3566,13 +3587,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="4">
         <v>12.59</v>
@@ -3590,10 +3611,10 @@
         <v>83</v>
       </c>
       <c r="K16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>17</v>
@@ -3604,13 +3625,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" s="4">
         <v>12.82</v>
@@ -3625,16 +3646,16 @@
         <v>219</v>
       </c>
       <c r="K17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="M17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:15">
@@ -3642,13 +3663,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="4">
         <v>13.15</v>
@@ -3663,16 +3684,16 @@
         <v>186</v>
       </c>
       <c r="K18" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="L18" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="L18" s="18" t="s">
-        <v>553</v>
-      </c>
       <c r="M18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:15">
@@ -3680,13 +3701,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F19" s="4">
         <v>13.25</v>
@@ -3701,16 +3722,16 @@
         <v>216</v>
       </c>
       <c r="K19" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="L19" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="L19" s="19" t="s">
-        <v>555</v>
-      </c>
       <c r="M19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:15">
@@ -3718,13 +3739,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F20" s="4">
         <v>13.86</v>
@@ -3739,16 +3760,16 @@
         <v>216</v>
       </c>
       <c r="K20" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="L20" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="L20" s="18" t="s">
-        <v>559</v>
-      </c>
       <c r="M20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:15">
@@ -3756,13 +3777,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F21" s="4">
         <v>13.75</v>
@@ -3777,16 +3798,16 @@
         <v>247</v>
       </c>
       <c r="K21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="M21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:15">
@@ -3794,13 +3815,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F22" s="4">
         <v>13.92</v>
@@ -3815,16 +3836,16 @@
         <v>247</v>
       </c>
       <c r="K22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="M22" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="N22" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:15">
@@ -3832,13 +3853,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" s="4">
         <v>13.85</v>
@@ -3853,13 +3874,13 @@
         <v>248</v>
       </c>
       <c r="K23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L23" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="M23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:15">
@@ -3867,13 +3888,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="E24" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" s="4">
         <v>13.95</v>
@@ -3891,13 +3912,13 @@
         <v>24</v>
       </c>
       <c r="K24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:15">
@@ -3905,13 +3926,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" s="4">
         <v>14.16</v>
@@ -3926,10 +3947,10 @@
         <v>218</v>
       </c>
       <c r="K25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>17</v>
@@ -3940,13 +3961,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F26" s="4">
         <v>14.55</v>
@@ -3955,16 +3976,16 @@
         <v>1243.93</v>
       </c>
       <c r="K26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="L26" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="M26" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:15">
@@ -3972,13 +3993,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="E27" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" s="4">
         <v>14.62</v>
@@ -3993,16 +4014,16 @@
         <v>177</v>
       </c>
       <c r="K27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L27" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="M27" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:15">
@@ -4010,13 +4031,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F28" s="4">
         <v>14.851000000000001</v>
@@ -4034,16 +4055,16 @@
         <v>105</v>
       </c>
       <c r="K28" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="L28" s="4" t="s">
-        <v>487</v>
-      </c>
       <c r="M28" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="2:15">
@@ -4051,13 +4072,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F29" s="4">
         <v>14.87</v>
@@ -4072,16 +4093,16 @@
         <v>261</v>
       </c>
       <c r="K29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="L29" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="M29" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O29" s="8"/>
     </row>
@@ -4090,13 +4111,13 @@
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F30" s="4">
         <v>14.95</v>
@@ -4111,16 +4132,16 @@
         <v>261</v>
       </c>
       <c r="K30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="M30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="2:15">
@@ -4128,13 +4149,13 @@
         <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E31" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F31" s="4">
         <v>15.82</v>
@@ -4149,13 +4170,13 @@
         <v>261</v>
       </c>
       <c r="K31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L31" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="M31" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:15">
@@ -4163,13 +4184,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="F32" s="4">
         <v>16.07</v>
@@ -4187,16 +4208,16 @@
         <v>0</v>
       </c>
       <c r="K32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L32" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="M32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N32" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="33" spans="2:14">
@@ -4204,13 +4225,13 @@
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="E33" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F33" s="4">
         <v>16.5</v>
@@ -4225,16 +4246,16 @@
         <v>170</v>
       </c>
       <c r="K33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="L33" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="M33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="34" spans="2:14">
@@ -4242,13 +4263,13 @@
         <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F34" s="4">
         <v>16.8</v>
@@ -4266,10 +4287,10 @@
         <v>4</v>
       </c>
       <c r="K34" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>17</v>
@@ -4280,13 +4301,13 @@
         <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="E35" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F35" s="4">
         <v>16.600000000000001</v>
@@ -4304,10 +4325,10 @@
         <v>5</v>
       </c>
       <c r="K35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L35" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>17</v>
@@ -4318,13 +4339,13 @@
         <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="E36" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F36" s="4">
         <v>17</v>
@@ -4339,16 +4360,16 @@
         <v>217</v>
       </c>
       <c r="K36" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="L36" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="L36" s="4" t="s">
-        <v>489</v>
-      </c>
       <c r="M36" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="2:14">
@@ -4356,13 +4377,13 @@
         <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="E37" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F37" s="4">
         <v>17.27</v>
@@ -4377,16 +4398,16 @@
         <v>189</v>
       </c>
       <c r="K37" t="s">
+        <v>530</v>
+      </c>
+      <c r="L37" t="s">
         <v>531</v>
       </c>
-      <c r="L37" t="s">
-        <v>532</v>
-      </c>
       <c r="M37" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:14">
@@ -4394,13 +4415,13 @@
         <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="E38" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38" s="4">
         <v>17.329999999999998</v>
@@ -4415,16 +4436,16 @@
         <v>255</v>
       </c>
       <c r="K38" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L38" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="L38" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="M38" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="2:14">
@@ -4432,13 +4453,13 @@
         <v>37</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="F39" s="4">
         <v>17.399999999999999</v>
@@ -4453,16 +4474,16 @@
         <v>210</v>
       </c>
       <c r="K39" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="L39" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="L39" s="20" t="s">
-        <v>561</v>
-      </c>
       <c r="M39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="40" spans="2:14">
@@ -4470,13 +4491,13 @@
         <v>38</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F40" s="4">
         <v>17.28</v>
@@ -4491,16 +4512,16 @@
         <v>133</v>
       </c>
       <c r="K40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L40" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="L40" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="M40" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="2:14">
@@ -4508,13 +4529,13 @@
         <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="E41" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F41" s="4">
         <v>17.53</v>
@@ -4532,13 +4553,13 @@
         <v>0</v>
       </c>
       <c r="K41" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L41" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L41" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="M41" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="2:14">
@@ -4546,13 +4567,13 @@
         <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="E42" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F42" s="4">
         <v>17.73</v>
@@ -4567,16 +4588,16 @@
         <v>171</v>
       </c>
       <c r="K42" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L42" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="L42" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="M42" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="2:14">
@@ -4584,13 +4605,13 @@
         <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="E43" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F43" s="4">
         <v>17.78</v>
@@ -4605,16 +4626,16 @@
         <v>159</v>
       </c>
       <c r="K43" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L43" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="L43" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="M43" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:14">
@@ -4622,13 +4643,13 @@
         <v>42</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="E44" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F44" s="4">
         <v>17.850999999999999</v>
@@ -4643,16 +4664,16 @@
         <v>292</v>
       </c>
       <c r="K44" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="L44" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="L44" s="4" t="s">
-        <v>469</v>
-      </c>
       <c r="M44" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="2:14">
@@ -4660,13 +4681,13 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="E45" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F45" s="4">
         <v>17.88</v>
@@ -4684,16 +4705,16 @@
         <v>187</v>
       </c>
       <c r="K45" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L45" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="L45" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="M45" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="2:14">
@@ -4701,13 +4722,13 @@
         <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="F46" s="4">
         <v>17.89</v>
@@ -4722,16 +4743,16 @@
         <v>158</v>
       </c>
       <c r="K46" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L46" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="L46" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="M46" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="2:14">
@@ -4739,13 +4760,13 @@
         <v>46</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="E47" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F47" s="4">
         <v>18.785</v>
@@ -4760,16 +4781,16 @@
         <v>158</v>
       </c>
       <c r="K47" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="L47" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="L47" s="4" t="s">
-        <v>491</v>
-      </c>
       <c r="M47" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="2:14">
@@ -4777,13 +4798,13 @@
         <v>47</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="E48" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F48" s="4">
         <v>18.82</v>
@@ -4798,13 +4819,13 @@
         <v>222</v>
       </c>
       <c r="K48" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L48" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="M48" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -4812,13 +4833,13 @@
         <v>48</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="F49" s="4">
         <v>19.11</v>
@@ -4833,16 +4854,16 @@
         <v>321</v>
       </c>
       <c r="K49" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L49" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="L49" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="M49" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -4850,13 +4871,13 @@
         <v>49</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="E50" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F50" s="4">
         <v>19.260000000000002</v>
@@ -4871,16 +4892,16 @@
         <v>172</v>
       </c>
       <c r="K50" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L50" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="L50" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="M50" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -4888,13 +4909,13 @@
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="E51" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F51" s="4">
         <v>19.510000000000002</v>
@@ -4909,16 +4930,16 @@
         <v>186</v>
       </c>
       <c r="K51" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="L51" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="L51" s="19" t="s">
-        <v>565</v>
-      </c>
       <c r="M51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N51" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -4926,13 +4947,13 @@
         <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="F52" s="4">
         <v>19.5</v>
@@ -4947,10 +4968,10 @@
         <v>198</v>
       </c>
       <c r="K52" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="L52" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>17</v>
@@ -4961,13 +4982,13 @@
         <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="E53" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F53" s="4">
         <v>19.61</v>
@@ -4982,16 +5003,16 @@
         <v>158</v>
       </c>
       <c r="K53" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="L53" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="L53" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="M53" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -4999,13 +5020,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E54" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F54" s="4">
         <v>19.600000000000001</v>
@@ -5020,16 +5041,16 @@
         <v>259</v>
       </c>
       <c r="K54" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="L54" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="L54" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="M54" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -5037,13 +5058,13 @@
         <v>54</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="E55" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F55" s="4">
         <v>20.361999999999998</v>
@@ -5058,16 +5079,16 @@
         <v>259</v>
       </c>
       <c r="K55" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L55" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="M55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N55" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -5075,13 +5096,13 @@
         <v>55</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="F56" s="4">
         <v>20.260000000000002</v>
@@ -5096,13 +5117,13 @@
         <v>209</v>
       </c>
       <c r="K56" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="L56" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="M56" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -5110,13 +5131,13 @@
         <v>56</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="E57" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F57" s="4">
         <v>20.37</v>
@@ -5131,10 +5152,10 @@
         <v>273</v>
       </c>
       <c r="K57" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="L57" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>17</v>
@@ -5145,13 +5166,13 @@
         <v>57</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="E58" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F58" s="4">
         <v>20.420000000000002</v>
@@ -5166,16 +5187,16 @@
         <v>363</v>
       </c>
       <c r="K58" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="L58" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="L58" s="21" t="s">
-        <v>567</v>
-      </c>
       <c r="M58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N58" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="N58" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="6" customFormat="1">
@@ -5183,13 +5204,13 @@
         <v>58</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D59" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>580</v>
       </c>
       <c r="F59" s="6">
         <v>20.55</v>
@@ -5204,33 +5225,33 @@
         <v>216</v>
       </c>
       <c r="K59" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="L59" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="L59" s="19" t="s">
-        <v>582</v>
-      </c>
       <c r="M59" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:15" s="2" customFormat="1">
       <c r="A60" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B60" s="2">
         <v>59</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F60" s="2">
         <v>20.565000000000001</v>
@@ -5245,16 +5266,16 @@
         <v>179</v>
       </c>
       <c r="K60" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L60" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L60" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="M60" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O60" s="14"/>
     </row>
@@ -5263,13 +5284,13 @@
         <v>60</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F61" s="4">
         <v>20.58</v>
@@ -5287,13 +5308,13 @@
         <v>57</v>
       </c>
       <c r="K61" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="L61" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="L61" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="M61" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -5301,13 +5322,13 @@
         <v>61</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>231</v>
-      </c>
       <c r="E62" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F62" s="4">
         <v>20.978000000000002</v>
@@ -5322,16 +5343,16 @@
         <v>275</v>
       </c>
       <c r="K62" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="L62" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="L62" s="4" t="s">
-        <v>493</v>
-      </c>
       <c r="M62" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -5339,13 +5360,13 @@
         <v>62</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="F63" s="4">
         <v>21.05</v>
@@ -5360,16 +5381,16 @@
         <v>135</v>
       </c>
       <c r="K63" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="L63" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="L63" s="18" t="s">
-        <v>563</v>
-      </c>
       <c r="M63" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N63" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="6" customFormat="1">
@@ -5377,13 +5398,13 @@
         <v>63</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F64" s="6">
         <v>21.13</v>
@@ -5398,16 +5419,16 @@
         <v>261</v>
       </c>
       <c r="K64" t="s">
+        <v>582</v>
+      </c>
+      <c r="L64" t="s">
         <v>583</v>
       </c>
-      <c r="L64" t="s">
-        <v>584</v>
-      </c>
       <c r="M64" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -5415,13 +5436,13 @@
         <v>64</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="E65" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F65" s="4">
         <v>21.29</v>
@@ -5436,16 +5457,16 @@
         <v>258</v>
       </c>
       <c r="K65" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="L65" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="L65" s="4" t="s">
-        <v>485</v>
-      </c>
       <c r="M65" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -5453,13 +5474,13 @@
         <v>65</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="E66" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F66" s="4">
         <v>21.46</v>
@@ -5477,13 +5498,13 @@
         <v>72</v>
       </c>
       <c r="K66" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="L66" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="L66" s="4" t="s">
-        <v>240</v>
-      </c>
       <c r="M66" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -5491,13 +5512,13 @@
         <v>66</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="F67" s="4">
         <v>21.45</v>
@@ -5512,13 +5533,13 @@
         <v>220</v>
       </c>
       <c r="K67" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="L67" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="L67" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="M67" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -5526,13 +5547,13 @@
         <v>67</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="E68" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F68" s="4">
         <v>21.855</v>
@@ -5547,16 +5568,16 @@
         <v>169</v>
       </c>
       <c r="K68" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="L68" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="L68" s="4" t="s">
-        <v>495</v>
-      </c>
       <c r="M68" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -5564,13 +5585,13 @@
         <v>68</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F69" s="4">
         <v>22.216999999999999</v>
@@ -5588,16 +5609,16 @@
         <v>229</v>
       </c>
       <c r="K69" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L69" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="L69" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="M69" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -5605,13 +5626,13 @@
         <v>69</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F70" s="4">
         <v>22.13</v>
@@ -5626,13 +5647,13 @@
         <v>296</v>
       </c>
       <c r="K70" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L70" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="L70" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="M70" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -5640,13 +5661,13 @@
         <v>70</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="E71" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F71" s="4">
         <v>22.23</v>
@@ -5661,16 +5682,16 @@
         <v>288</v>
       </c>
       <c r="K71" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="L71" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="L71" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="M71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N71" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -5678,13 +5699,13 @@
         <v>71</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="F72" s="4">
         <v>22.38</v>
@@ -5699,33 +5720,33 @@
         <v>304</v>
       </c>
       <c r="K72" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="L72" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="L72" s="4" t="s">
+      <c r="M72" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N72" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B73" s="4">
         <v>72</v>
       </c>
       <c r="C73" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="E73" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>267</v>
       </c>
       <c r="F73" s="10">
         <v>22.46</v>
@@ -5736,16 +5757,16 @@
       <c r="H73" s="23"/>
       <c r="I73" s="23"/>
       <c r="K73" t="s">
+        <v>584</v>
+      </c>
+      <c r="L73" t="s">
         <v>585</v>
       </c>
-      <c r="L73" t="s">
-        <v>586</v>
-      </c>
       <c r="M73" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -5753,13 +5774,13 @@
         <v>73</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="E74" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F74" s="4">
         <v>22.43</v>
@@ -5774,13 +5795,13 @@
         <v>349</v>
       </c>
       <c r="K74" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="L74" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="L74" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="M74" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -5788,13 +5809,13 @@
         <v>74</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="E75" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F75" s="4">
         <v>22.56</v>
@@ -5809,16 +5830,16 @@
         <v>295</v>
       </c>
       <c r="K75" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L75" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="L75" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="M75" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -5826,13 +5847,13 @@
         <v>75</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="E76" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F76" s="4">
         <v>22.553999999999998</v>
@@ -5847,16 +5868,16 @@
         <v>288</v>
       </c>
       <c r="K76" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="L76" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="L76" s="4" t="s">
-        <v>277</v>
-      </c>
       <c r="M76" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N76" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="N76" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -5864,13 +5885,13 @@
         <v>76</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="E77" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F77" s="4">
         <v>22.623999999999999</v>
@@ -5885,16 +5906,16 @@
         <v>288</v>
       </c>
       <c r="K77" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="L77" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="L77" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="M77" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N77" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -5902,13 +5923,13 @@
         <v>77</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="E78" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F78" s="4">
         <v>22.77</v>
@@ -5923,16 +5944,16 @@
         <v>288</v>
       </c>
       <c r="K78" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="L78" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="L78" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="M78" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N78" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -5940,13 +5961,13 @@
         <v>78</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="E79" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F79" s="4">
         <v>22.878</v>
@@ -5961,16 +5982,16 @@
         <v>289</v>
       </c>
       <c r="K79" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="L79" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="L79" s="4" t="s">
-        <v>497</v>
-      </c>
       <c r="M79" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -5978,13 +5999,13 @@
         <v>79</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="E80" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F80" s="4">
         <v>22.96</v>
@@ -5999,16 +6020,16 @@
         <v>363</v>
       </c>
       <c r="K80" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="L80" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="L80" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="M80" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N80" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="N80" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="81" spans="2:14">
@@ -6016,13 +6037,13 @@
         <v>80</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F81" s="4">
         <v>23</v>
@@ -6037,16 +6058,16 @@
         <v>296</v>
       </c>
       <c r="K81" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="L81" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="L81" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="M81" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="2:14">
@@ -6054,13 +6075,13 @@
         <v>81</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="E82" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F82" s="4">
         <v>22.9</v>
@@ -6075,13 +6096,13 @@
         <v>281</v>
       </c>
       <c r="K82" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L82" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="L82" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="M82" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="2:14">
@@ -6089,13 +6110,13 @@
         <v>82</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="E83" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F83" s="4">
         <v>23.2</v>
@@ -6110,13 +6131,13 @@
         <v>223</v>
       </c>
       <c r="K83" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="L83" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="L83" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="M83" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="2:14">
@@ -6124,13 +6145,13 @@
         <v>83</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="E84" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F84" s="4">
         <v>23.42</v>
@@ -6145,13 +6166,13 @@
         <v>296</v>
       </c>
       <c r="K84" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="L84" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="L84" s="4" t="s">
-        <v>297</v>
-      </c>
       <c r="M84" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="2:14">
@@ -6159,13 +6180,13 @@
         <v>84</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>299</v>
-      </c>
       <c r="E85" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F85" s="4">
         <v>23.5</v>
@@ -6180,16 +6201,16 @@
         <v>272</v>
       </c>
       <c r="K85" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L85" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L85" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="M85" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="2:14">
@@ -6197,13 +6218,13 @@
         <v>85</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>301</v>
-      </c>
       <c r="E86" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F86" s="4">
         <v>23.68</v>
@@ -6218,16 +6239,16 @@
         <v>300</v>
       </c>
       <c r="K86" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="L86" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="L86" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="M86" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="2:14">
@@ -6235,13 +6256,13 @@
         <v>86</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>305</v>
-      </c>
       <c r="E87" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F87" s="4">
         <v>23.74</v>
@@ -6256,13 +6277,13 @@
         <v>226</v>
       </c>
       <c r="K87" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="L87" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="L87" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="M87" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="2:14">
@@ -6270,13 +6291,13 @@
         <v>87</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="E88" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F88" s="4">
         <v>23.83</v>
@@ -6291,16 +6312,16 @@
         <v>219</v>
       </c>
       <c r="K88" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="L88" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="L88" s="19" t="s">
-        <v>589</v>
-      </c>
       <c r="M88" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="2:14">
@@ -6308,13 +6329,13 @@
         <v>88</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>311</v>
-      </c>
       <c r="E89" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F89" s="4">
         <v>23.937999999999999</v>
@@ -6329,16 +6350,16 @@
         <v>376</v>
       </c>
       <c r="K89" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="L89" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="L89" s="4" t="s">
-        <v>313</v>
-      </c>
       <c r="M89" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="2:14">
@@ -6346,13 +6367,13 @@
         <v>89</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>315</v>
-      </c>
       <c r="E90" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F90" s="4">
         <v>24.08</v>
@@ -6367,16 +6388,16 @@
         <v>318</v>
       </c>
       <c r="K90" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="L90" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="L90" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="M90" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="2:14">
@@ -6384,13 +6405,13 @@
         <v>90</v>
       </c>
       <c r="C91" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>319</v>
-      </c>
       <c r="E91" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F91" s="4">
         <v>24.29</v>
@@ -6405,16 +6426,16 @@
         <v>129</v>
       </c>
       <c r="K91" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="L91" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="L91" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="M91" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="2:14">
@@ -6422,13 +6443,13 @@
         <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>323</v>
-      </c>
       <c r="E92" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F92" s="4">
         <v>24.51</v>
@@ -6446,16 +6467,16 @@
         <v>98</v>
       </c>
       <c r="K92" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="L92" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="L92" s="4" t="s">
+      <c r="M92" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N92" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="M92" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N92" s="4" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="93" spans="2:14">
@@ -6463,13 +6484,13 @@
         <v>92</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>328</v>
-      </c>
       <c r="E93" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F93" s="4">
         <v>25.17</v>
@@ -6484,16 +6505,16 @@
         <v>310</v>
       </c>
       <c r="K93" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="L93" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="L93" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="M93" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="2:14">
@@ -6501,13 +6522,13 @@
         <v>93</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="E94" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F94" s="4">
         <v>25.28</v>
@@ -6522,16 +6543,16 @@
         <v>194</v>
       </c>
       <c r="K94" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="L94" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="L94" s="4" t="s">
-        <v>499</v>
-      </c>
       <c r="M94" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="95" spans="2:14">
@@ -6539,13 +6560,13 @@
         <v>94</v>
       </c>
       <c r="C95" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="E95" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F95" s="4">
         <v>25.63</v>
@@ -6560,16 +6581,16 @@
         <v>254</v>
       </c>
       <c r="K95" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L95" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="L95" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="M95" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="2:14">
@@ -6577,13 +6598,13 @@
         <v>95</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="E96" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="F96" s="4">
         <v>25.58</v>
@@ -6601,10 +6622,10 @@
         <v>86</v>
       </c>
       <c r="K96" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="L96" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="L96" s="4" t="s">
-        <v>341</v>
       </c>
       <c r="M96" s="4" t="s">
         <v>17</v>
@@ -6615,13 +6636,13 @@
         <v>96</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="E97" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F97" s="4">
         <v>25.83</v>
@@ -6636,16 +6657,16 @@
         <v>312</v>
       </c>
       <c r="K97" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="L97" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="L97" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="M97" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="2:14">
@@ -6653,13 +6674,13 @@
         <v>97</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="F98" s="4">
         <v>25.84</v>
@@ -6674,16 +6695,16 @@
         <v>305</v>
       </c>
       <c r="K98" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="L98" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="L98" s="21" t="s">
+      <c r="M98" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N98" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="M98" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N98" s="4" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="99" spans="2:14">
@@ -6691,13 +6712,13 @@
         <v>98</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="E99" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F99" s="4">
         <v>25.88</v>
@@ -6715,13 +6736,13 @@
         <v>82</v>
       </c>
       <c r="K99" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="L99" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="L99" s="4" t="s">
-        <v>352</v>
-      </c>
       <c r="M99" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="2:14" s="2" customFormat="1">
@@ -6729,13 +6750,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F100" s="2">
         <v>26.2</v>
@@ -6750,16 +6771,16 @@
         <v>341</v>
       </c>
       <c r="K100" t="s">
+        <v>589</v>
+      </c>
+      <c r="L100" t="s">
         <v>590</v>
       </c>
-      <c r="L100" t="s">
-        <v>591</v>
-      </c>
       <c r="M100" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="2:14" s="2" customFormat="1">
@@ -6767,13 +6788,13 @@
         <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F101" s="2">
         <v>26.23</v>
@@ -6791,16 +6812,16 @@
         <v>341</v>
       </c>
       <c r="K101" t="s">
+        <v>545</v>
+      </c>
+      <c r="L101" t="s">
         <v>546</v>
       </c>
-      <c r="L101" t="s">
-        <v>547</v>
-      </c>
       <c r="M101" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="2:14">
@@ -6808,13 +6829,13 @@
         <v>101</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="E102" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="F102" s="4">
         <v>26.26</v>
@@ -6832,10 +6853,10 @@
         <v>70</v>
       </c>
       <c r="K102" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="L102" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="L102" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="M102" s="4" t="s">
         <v>17</v>
@@ -6846,13 +6867,13 @@
         <v>102</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>362</v>
-      </c>
       <c r="E103" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F103" s="4">
         <v>26.96</v>
@@ -6870,13 +6891,13 @@
         <v>21</v>
       </c>
       <c r="K103" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="L103" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="L103" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="M103" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="2:14">
@@ -6884,13 +6905,13 @@
         <v>103</v>
       </c>
       <c r="C104" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>366</v>
-      </c>
       <c r="E104" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F104" s="4">
         <v>26.95</v>
@@ -6908,13 +6929,13 @@
         <v>69</v>
       </c>
       <c r="K104" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="L104" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="L104" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="M104" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="2:14">
@@ -6922,13 +6943,13 @@
         <v>104</v>
       </c>
       <c r="C105" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="E105" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F105" s="4">
         <v>27.02</v>
@@ -6943,16 +6964,16 @@
         <v>465</v>
       </c>
       <c r="K105" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="L105" s="19" t="s">
         <v>573</v>
       </c>
-      <c r="L105" s="19" t="s">
-        <v>574</v>
-      </c>
       <c r="M105" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N105" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="N105" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="106" spans="2:14">
@@ -6960,13 +6981,13 @@
         <v>105</v>
       </c>
       <c r="C106" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>372</v>
-      </c>
       <c r="E106" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F106" s="4">
         <v>27.06</v>
@@ -6981,16 +7002,16 @@
         <v>273</v>
       </c>
       <c r="K106" t="s">
+        <v>534</v>
+      </c>
+      <c r="L106" t="s">
         <v>535</v>
       </c>
-      <c r="L106" t="s">
-        <v>536</v>
-      </c>
       <c r="M106" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="2:14">
@@ -6998,13 +7019,13 @@
         <v>106</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F107" s="4">
         <v>27.32</v>
@@ -7019,16 +7040,16 @@
         <v>479</v>
       </c>
       <c r="K107" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="L107" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="L107" s="4" t="s">
-        <v>375</v>
-      </c>
       <c r="M107" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="2:14">
@@ -7036,13 +7057,13 @@
         <v>107</v>
       </c>
       <c r="C108" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="E108" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F108" s="4">
         <v>27.33</v>
@@ -7057,13 +7078,13 @@
         <v>398</v>
       </c>
       <c r="K108" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="L108" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="L108" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="M108" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="2:14">
@@ -7071,13 +7092,13 @@
         <v>108</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F109" s="4">
         <v>27.45</v>
@@ -7092,16 +7113,16 @@
         <v>479</v>
       </c>
       <c r="K109" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="L109" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="L109" s="4" t="s">
-        <v>381</v>
-      </c>
       <c r="M109" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="2:14">
@@ -7109,13 +7130,13 @@
         <v>109</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="E110" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F110" s="4">
         <v>27.48</v>
@@ -7130,13 +7151,13 @@
         <v>293</v>
       </c>
       <c r="K110" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="L110" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="L110" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="M110" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="2:14">
@@ -7144,13 +7165,13 @@
         <v>110</v>
       </c>
       <c r="C111" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>347</v>
-      </c>
       <c r="E111" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F111" s="4">
         <v>27.75</v>
@@ -7165,16 +7186,16 @@
         <v>305</v>
       </c>
       <c r="K111" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="L111" s="22" t="s">
         <v>571</v>
       </c>
-      <c r="L111" s="22" t="s">
-        <v>572</v>
-      </c>
       <c r="M111" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="112" spans="2:14">
@@ -7182,13 +7203,13 @@
         <v>111</v>
       </c>
       <c r="C112" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>388</v>
-      </c>
       <c r="E112" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F112" s="4">
         <v>27.87</v>
@@ -7203,16 +7224,16 @@
         <v>250</v>
       </c>
       <c r="K112" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="L112" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="L112" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="M112" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -7220,13 +7241,13 @@
         <v>112</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="E113" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>395</v>
       </c>
       <c r="F113" s="4">
         <v>27.81</v>
@@ -7244,16 +7265,16 @@
         <v>49</v>
       </c>
       <c r="K113" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="L113" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="L113" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="M113" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -7261,13 +7282,13 @@
         <v>113</v>
       </c>
       <c r="C114" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>392</v>
-      </c>
       <c r="E114" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F114" s="4">
         <v>27.98</v>
@@ -7282,16 +7303,16 @@
         <v>371</v>
       </c>
       <c r="K114" t="s">
+        <v>538</v>
+      </c>
+      <c r="L114" t="s">
         <v>539</v>
       </c>
-      <c r="L114" t="s">
-        <v>540</v>
-      </c>
       <c r="M114" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -7299,13 +7320,13 @@
         <v>114</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="E115" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="F115" s="4">
         <v>28.388000000000002</v>
@@ -7320,16 +7341,16 @@
         <v>247</v>
       </c>
       <c r="K115" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="L115" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="L115" s="4" t="s">
-        <v>405</v>
-      </c>
       <c r="M115" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -7337,13 +7358,13 @@
         <v>115</v>
       </c>
       <c r="C116" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>407</v>
-      </c>
       <c r="E116" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F116" s="4">
         <v>28.27</v>
@@ -7358,16 +7379,16 @@
         <v>252</v>
       </c>
       <c r="K116" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="L116" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="L116" s="4" t="s">
-        <v>409</v>
-      </c>
       <c r="M116" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N116" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="N116" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -7375,13 +7396,13 @@
         <v>116</v>
       </c>
       <c r="C117" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="E117" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="F117" s="4">
         <v>28.29</v>
@@ -7396,34 +7417,34 @@
         <v>308</v>
       </c>
       <c r="K117" t="s">
+        <v>542</v>
+      </c>
+      <c r="L117" t="s">
         <v>543</v>
       </c>
-      <c r="L117" t="s">
-        <v>544</v>
-      </c>
       <c r="M117" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O117" s="9"/>
     </row>
     <row r="118" spans="1:15" s="2" customFormat="1">
       <c r="A118" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B118" s="4">
         <v>117</v>
       </c>
       <c r="C118" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="F118" s="2">
         <v>28.29</v>
@@ -7432,19 +7453,19 @@
         <v>1924.05</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K118" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="L118" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="L118" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="M118" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -7452,13 +7473,13 @@
         <v>118</v>
       </c>
       <c r="C119" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>402</v>
-      </c>
       <c r="E119" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F119" s="4">
         <v>29.17</v>
@@ -7473,16 +7494,16 @@
         <v>319</v>
       </c>
       <c r="K119" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="L119" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="L119" s="4" t="s">
-        <v>417</v>
-      </c>
       <c r="M119" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N119" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -7490,13 +7511,13 @@
         <v>119</v>
       </c>
       <c r="C120" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>419</v>
-      </c>
       <c r="E120" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F120" s="4">
         <v>29.704999999999998</v>
@@ -7511,16 +7532,16 @@
         <v>264</v>
       </c>
       <c r="K120" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="L120" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="L120" s="4" t="s">
-        <v>421</v>
-      </c>
       <c r="M120" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N120" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -7528,13 +7549,13 @@
         <v>120</v>
       </c>
       <c r="C121" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>425</v>
-      </c>
       <c r="E121" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F121" s="4">
         <v>30.12</v>
@@ -7549,16 +7570,16 @@
         <v>305</v>
       </c>
       <c r="K121" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="L121" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="L121" s="4" t="s">
-        <v>427</v>
-      </c>
       <c r="M121" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N121" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -7566,13 +7587,13 @@
         <v>121</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>429</v>
-      </c>
       <c r="E122" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F122" s="4">
         <v>30.166</v>
@@ -7587,33 +7608,33 @@
         <v>338</v>
       </c>
       <c r="K122" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="L122" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="L122" s="4" t="s">
-        <v>431</v>
-      </c>
       <c r="M122" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N122" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="123" spans="1:15" s="2" customFormat="1">
       <c r="A123" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B123" s="2">
         <v>122</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F123" s="2">
         <v>30.16</v>
@@ -7631,13 +7652,13 @@
         <v>64</v>
       </c>
       <c r="K123" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="L123" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="L123" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="M123" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" spans="1:15">
@@ -7645,13 +7666,13 @@
         <v>123</v>
       </c>
       <c r="C124" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D124" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>437</v>
-      </c>
       <c r="E124" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F124" s="4">
         <v>30.68</v>
@@ -7669,13 +7690,13 @@
         <v>69</v>
       </c>
       <c r="K124" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="L124" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="L124" s="4" t="s">
-        <v>439</v>
-      </c>
       <c r="M124" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -7683,13 +7704,13 @@
         <v>124</v>
       </c>
       <c r="C125" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>423</v>
-      </c>
       <c r="E125" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F125" s="6">
         <v>31.03</v>
@@ -7704,16 +7725,16 @@
         <v>243</v>
       </c>
       <c r="K125" t="s">
+        <v>591</v>
+      </c>
+      <c r="L125" t="s">
         <v>592</v>
       </c>
-      <c r="L125" t="s">
-        <v>593</v>
-      </c>
       <c r="M125" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N125" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="1:15">
@@ -7721,13 +7742,13 @@
         <v>125</v>
       </c>
       <c r="C126" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>441</v>
-      </c>
       <c r="E126" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F126" s="12">
         <v>31.146999999999998</v>
@@ -7745,16 +7766,16 @@
         <v>50</v>
       </c>
       <c r="K126" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="L126" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="L126" s="4" t="s">
-        <v>518</v>
-      </c>
       <c r="M126" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -7762,13 +7783,13 @@
         <v>126</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D127" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E127" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>520</v>
       </c>
       <c r="F127" s="4">
         <v>31.82</v>
@@ -7786,16 +7807,16 @@
         <v>308</v>
       </c>
       <c r="K127" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="L127" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="L127" s="21" t="s">
-        <v>576</v>
-      </c>
       <c r="M127" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N127" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="N127" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -7803,13 +7824,13 @@
         <v>127</v>
       </c>
       <c r="C128" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D128" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>444</v>
-      </c>
       <c r="E128" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F128" s="4">
         <v>31.85</v>
@@ -7824,30 +7845,30 @@
         <v>339</v>
       </c>
       <c r="K128" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="L128" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="L128" s="4" t="s">
-        <v>446</v>
-      </c>
       <c r="M128" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:14" s="2" customFormat="1">
       <c r="A129" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B129" s="2">
         <v>128</v>
       </c>
       <c r="C129" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F129" s="2">
         <v>32.43</v>
@@ -7865,13 +7886,13 @@
         <v>32</v>
       </c>
       <c r="K129" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="L129" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="L129" s="2" t="s">
-        <v>450</v>
-      </c>
       <c r="M129" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -7879,13 +7900,13 @@
         <v>129</v>
       </c>
       <c r="C130" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D130" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>452</v>
-      </c>
       <c r="E130" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F130">
         <v>32.82</v>
@@ -7900,16 +7921,16 @@
         <v>335</v>
       </c>
       <c r="K130" t="s">
+        <v>452</v>
+      </c>
+      <c r="L130" t="s">
         <v>453</v>
       </c>
-      <c r="L130" t="s">
-        <v>454</v>
-      </c>
       <c r="M130" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N130" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -7917,13 +7938,13 @@
         <v>130</v>
       </c>
       <c r="C131" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>456</v>
-      </c>
       <c r="E131" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F131" s="4">
         <v>33.049999999999997</v>
@@ -7938,33 +7959,33 @@
         <v>294</v>
       </c>
       <c r="K131" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="L131" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="L131" s="21" t="s">
-        <v>578</v>
-      </c>
       <c r="M131" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N131" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="N131" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:14" s="2" customFormat="1">
       <c r="A132" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B132" s="2">
         <v>131</v>
       </c>
       <c r="C132" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F132" s="2">
         <v>33</v>
@@ -7979,13 +8000,13 @@
         <v>356</v>
       </c>
       <c r="K132" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="L132" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="L132" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="M132" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -7993,13 +8014,13 @@
         <v>132</v>
       </c>
       <c r="C133" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>462</v>
-      </c>
       <c r="E133" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F133">
         <v>44.232999999999997</v>
@@ -8014,16 +8035,16 @@
         <v>458</v>
       </c>
       <c r="K133" t="s">
+        <v>524</v>
+      </c>
+      <c r="L133" t="s">
         <v>525</v>
       </c>
-      <c r="L133" t="s">
-        <v>526</v>
-      </c>
       <c r="M133" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N133" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -8032,7 +8053,7 @@
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="43" fitToHeight="2" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="62" fitToHeight="2" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
